--- a/sampledata/sample_0425/cbs_sample.xlsx
+++ b/sampledata/sample_0425/cbs_sample.xlsx
@@ -911,7 +911,7 @@
     <t xml:space="preserve">C(=O)(c1ccc(Br)cc1)CCC(=C(C)O2)N=C2c1ccccc1</t>
   </si>
   <si>
-    <t xml:space="preserve">O=C2/C(CCC2)=C\c1ccccc1</t>
+    <t xml:space="preserve">Delete20240528: O=C2/C(CCC2)=C\c1ccccc1</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.sciencedirect.com/science/article/pii/S0957416697000347</t>
@@ -2222,7 +2222,7 @@
     <t xml:space="preserve">p39,step 5</t>
   </si>
   <si>
-    <t xml:space="preserve">C(=O)(c1c(/C=C/c2ccccc2)cccc1)c3ccccc3</t>
+    <t xml:space="preserve">Delete20240528:C(=O)(c1c(/C=C/c2ccccc2)cccc1)c3ccccc3</t>
   </si>
   <si>
     <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/10.1002/anie.201711797</t>
@@ -2297,25 +2297,7 @@
     <t xml:space="preserve">https://www.nature.com/articles/s41467-019-11245-2#MOESM2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://doi.org/10.1016/j.tet.2006.05.036</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://doi.org/10.1016/j.tet.2006.05.036 </t>
   </si>
 </sst>
 </file>
@@ -2637,6 +2619,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
@@ -2671,10 +2657,6 @@
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2785,8 +2767,8 @@
   </sheetPr>
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D100" activeCellId="0" sqref="D100"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B90" activeCellId="0" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4298,15 +4280,15 @@
       <c r="B48" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="8" t="n">
-        <v>-88</v>
+      <c r="C48" s="16" t="n">
+        <v>-95</v>
       </c>
       <c r="D48" s="8" t="n">
         <v>-20</v>
       </c>
       <c r="E48" s="8" t="n">
         <f aca="false">50+C48/2</f>
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="F48" s="8" t="n">
         <f aca="false">273+D48</f>
@@ -4815,7 +4797,7 @@
       <c r="A65" s="3" t="n">
         <v>63</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="17" t="s">
         <v>119</v>
       </c>
       <c r="C65" s="8" t="n">
@@ -4847,7 +4829,7 @@
       <c r="A66" s="3" t="n">
         <v>64</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="17" t="s">
         <v>121</v>
       </c>
       <c r="C66" s="8" t="n">
@@ -4877,7 +4859,7 @@
       <c r="A67" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="17" t="s">
         <v>122</v>
       </c>
       <c r="C67" s="8" t="n">
@@ -4930,7 +4912,7 @@
       <c r="H68" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="I68" s="17" t="s">
+      <c r="I68" s="18" t="s">
         <v>125</v>
       </c>
       <c r="J68" s="13"/>
@@ -5175,7 +5157,7 @@
         <v>127</v>
       </c>
       <c r="I76" s="12"/>
-      <c r="J76" s="18" t="s">
+      <c r="J76" s="19" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5423,7 +5405,7 @@
       <c r="A85" s="3" t="n">
         <v>83</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="17" t="s">
         <v>145</v>
       </c>
       <c r="C85" s="8" t="n">
@@ -5443,10 +5425,10 @@
       <c r="G85" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H85" s="19" t="s">
+      <c r="H85" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="I85" s="17" t="s">
+      <c r="I85" s="18" t="s">
         <v>147</v>
       </c>
       <c r="J85" s="13"/>
@@ -5455,7 +5437,7 @@
       <c r="A86" s="3" t="n">
         <v>84</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="17" t="s">
         <v>148</v>
       </c>
       <c r="C86" s="8" t="n">
@@ -5475,10 +5457,10 @@
       <c r="G86" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H86" s="20" t="s">
+      <c r="H86" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="I86" s="17" t="s">
+      <c r="I86" s="18" t="s">
         <v>150</v>
       </c>
       <c r="J86" s="13"/>
@@ -5487,7 +5469,7 @@
       <c r="A87" s="3" t="n">
         <v>85</v>
       </c>
-      <c r="B87" s="21" t="s">
+      <c r="B87" s="22" t="s">
         <v>151</v>
       </c>
       <c r="C87" s="8" t="n">
@@ -5504,13 +5486,13 @@
         <f aca="false">273+D87</f>
         <v>273</v>
       </c>
-      <c r="G87" s="22" t="s">
+      <c r="G87" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H87" s="23" t="s">
+      <c r="H87" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="I87" s="17" t="s">
+      <c r="I87" s="18" t="s">
         <v>153</v>
       </c>
       <c r="J87" s="11" t="s">
@@ -5540,10 +5522,10 @@
       <c r="G88" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H88" s="24" t="s">
+      <c r="H88" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="I88" s="17" t="s">
+      <c r="I88" s="18" t="s">
         <v>157</v>
       </c>
       <c r="J88" s="11" t="s">
@@ -5577,17 +5559,17 @@
       <c r="H89" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="I89" s="17"/>
+      <c r="I89" s="18"/>
       <c r="J89" s="11"/>
     </row>
     <row r="90" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="n">
         <v>88</v>
       </c>
-      <c r="B90" s="21" t="s">
+      <c r="B90" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="C90" s="25" t="n">
+      <c r="C90" s="16" t="n">
         <v>80</v>
       </c>
       <c r="D90" s="8" t="n">
@@ -5607,7 +5589,7 @@
       <c r="H90" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="I90" s="17"/>
+      <c r="I90" s="18"/>
       <c r="J90" s="11" t="s">
         <v>163</v>
       </c>
@@ -5616,7 +5598,7 @@
       <c r="A91" s="3" t="n">
         <v>89</v>
       </c>
-      <c r="B91" s="21" t="s">
+      <c r="B91" s="22" t="s">
         <v>164</v>
       </c>
       <c r="C91" s="8" t="n">
@@ -5636,10 +5618,10 @@
       <c r="G91" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H91" s="19" t="s">
+      <c r="H91" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="I91" s="17"/>
+      <c r="I91" s="18"/>
       <c r="J91" s="11"/>
     </row>
     <row r="92" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5666,17 +5648,17 @@
       <c r="G92" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H92" s="19" t="s">
+      <c r="H92" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="I92" s="17"/>
+      <c r="I92" s="18"/>
       <c r="J92" s="11"/>
     </row>
     <row r="93" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="n">
         <v>91</v>
       </c>
-      <c r="B93" s="21" t="s">
+      <c r="B93" s="22" t="s">
         <v>168</v>
       </c>
       <c r="C93" s="8" t="n">
@@ -5699,14 +5681,14 @@
       <c r="H93" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I93" s="17"/>
+      <c r="I93" s="18"/>
       <c r="J93" s="11"/>
     </row>
     <row r="94" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="n">
         <v>92</v>
       </c>
-      <c r="B94" s="21" t="s">
+      <c r="B94" s="22" t="s">
         <v>169</v>
       </c>
       <c r="C94" s="8" t="n">
@@ -5726,15 +5708,15 @@
       <c r="G94" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="17"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="18"/>
       <c r="J94" s="11"/>
     </row>
     <row r="95" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="n">
         <v>93</v>
       </c>
-      <c r="B95" s="21" t="s">
+      <c r="B95" s="22" t="s">
         <v>170</v>
       </c>
       <c r="C95" s="8" t="n">
@@ -5754,15 +5736,15 @@
       <c r="G95" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="17"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="18"/>
       <c r="J95" s="11"/>
     </row>
     <row r="96" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="n">
         <v>94</v>
       </c>
-      <c r="B96" s="21" t="s">
+      <c r="B96" s="22" t="s">
         <v>171</v>
       </c>
       <c r="C96" s="8" t="n">
@@ -5783,14 +5765,14 @@
         <v>41</v>
       </c>
       <c r="H96" s="28"/>
-      <c r="I96" s="17"/>
+      <c r="I96" s="18"/>
       <c r="J96" s="11"/>
     </row>
     <row r="97" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="n">
         <v>95</v>
       </c>
-      <c r="B97" s="21" t="s">
+      <c r="B97" s="22" t="s">
         <v>172</v>
       </c>
       <c r="C97" s="15" t="n">
@@ -5810,15 +5792,15 @@
       <c r="G97" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="17"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="18"/>
       <c r="J97" s="11"/>
     </row>
     <row r="98" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="n">
         <v>96</v>
       </c>
-      <c r="B98" s="21" t="s">
+      <c r="B98" s="22" t="s">
         <v>173</v>
       </c>
       <c r="C98" s="8" t="n">
@@ -5838,15 +5820,15 @@
       <c r="G98" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="17"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="18"/>
       <c r="J98" s="11"/>
     </row>
     <row r="99" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="n">
         <v>97</v>
       </c>
-      <c r="B99" s="21" t="s">
+      <c r="B99" s="22" t="s">
         <v>174</v>
       </c>
       <c r="C99" s="15" t="n">
@@ -5867,7 +5849,7 @@
         <v>41</v>
       </c>
       <c r="H99" s="28"/>
-      <c r="I99" s="17"/>
+      <c r="I99" s="18"/>
       <c r="J99" s="11" t="s">
         <v>175</v>
       </c>
@@ -5876,7 +5858,7 @@
       <c r="A100" s="3" t="n">
         <v>98</v>
       </c>
-      <c r="B100" s="21" t="s">
+      <c r="B100" s="22" t="s">
         <v>176</v>
       </c>
       <c r="C100" s="8" t="n">
@@ -5899,14 +5881,14 @@
       <c r="H100" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="I100" s="17"/>
+      <c r="I100" s="18"/>
       <c r="J100" s="11"/>
     </row>
     <row r="101" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="n">
         <v>99</v>
       </c>
-      <c r="B101" s="21" t="s">
+      <c r="B101" s="22" t="s">
         <v>179</v>
       </c>
       <c r="C101" s="8" t="n">
@@ -5938,7 +5920,7 @@
       <c r="A102" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="B102" s="21" t="s">
+      <c r="B102" s="22" t="s">
         <v>182</v>
       </c>
       <c r="C102" s="8" t="n">
@@ -6063,7 +6045,7 @@
     <hyperlink ref="H90" r:id="rId84" display="https://chemistry-europe.onlinelibrary.wiley.com/doi/10.1002/ejoc.201900104"/>
     <hyperlink ref="H93" r:id="rId85" display="https://www.sciencedirect.com/science/article/pii/S0957416697000347"/>
     <hyperlink ref="H100" r:id="rId86" display="https://www.sciencedirect.com/science/article/pii/S0040403903010360?via%3Dihub"/>
-    <hyperlink ref="H103" r:id="rId87" display="https://doi.org/10.1016/j.tet.2006.05.036"/>
+    <hyperlink ref="H103" r:id="rId87" display="https://doi.org/10.1016/j.tet.2006.05.036 "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.511805555555555" footer="0.25"/>

--- a/sampledata/sample_0425/cbs_sample.xlsx
+++ b/sampledata/sample_0425/cbs_sample.xlsx
@@ -2767,8 +2767,8 @@
   </sheetPr>
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B90" activeCellId="0" sqref="B90"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/sampledata/sample_0425/cbs_sample.xlsx
+++ b/sampledata/sample_0425/cbs_sample.xlsx
@@ -911,7 +911,7 @@
     <t xml:space="preserve">C(=O)(c1ccc(Br)cc1)CCC(=C(C)O2)N=C2c1ccccc1</t>
   </si>
   <si>
-    <t xml:space="preserve">Delete20240528: O=C2/C(CCC2)=C\c1ccccc1</t>
+    <t xml:space="preserve">O=C2/C(CCC2)=C\c1ccccc1</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.sciencedirect.com/science/article/pii/S0957416697000347</t>
@@ -2222,7 +2222,7 @@
     <t xml:space="preserve">p39,step 5</t>
   </si>
   <si>
-    <t xml:space="preserve">Delete20240528:C(=O)(c1c(/C=C/c2ccccc2)cccc1)c3ccccc3</t>
+    <t xml:space="preserve">C(=O)(c1c(/C=C/c2ccccc2)cccc1)c3ccccc3</t>
   </si>
   <si>
     <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/10.1002/anie.201711797</t>
@@ -2554,7 +2554,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2612,6 +2612,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2767,8 +2771,8 @@
   </sheetPr>
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="B64"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B92" activeCellId="0" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3675,7 +3679,7 @@
       <c r="A29" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="8" t="n">
@@ -3712,7 +3716,7 @@
       <c r="B30" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="15" t="n">
+      <c r="C30" s="16" t="n">
         <v>-92</v>
       </c>
       <c r="D30" s="8" t="n">
@@ -4280,7 +4284,7 @@
       <c r="B48" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="16" t="n">
+      <c r="C48" s="17" t="n">
         <v>-95</v>
       </c>
       <c r="D48" s="8" t="n">
@@ -4797,7 +4801,7 @@
       <c r="A65" s="3" t="n">
         <v>63</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="18" t="s">
         <v>119</v>
       </c>
       <c r="C65" s="8" t="n">
@@ -4829,7 +4833,7 @@
       <c r="A66" s="3" t="n">
         <v>64</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C66" s="8" t="n">
@@ -4859,7 +4863,7 @@
       <c r="A67" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="18" t="s">
         <v>122</v>
       </c>
       <c r="C67" s="8" t="n">
@@ -4912,7 +4916,7 @@
       <c r="H68" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="I68" s="18" t="s">
+      <c r="I68" s="19" t="s">
         <v>125</v>
       </c>
       <c r="J68" s="13"/>
@@ -5157,7 +5161,7 @@
         <v>127</v>
       </c>
       <c r="I76" s="12"/>
-      <c r="J76" s="19" t="s">
+      <c r="J76" s="20" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5405,7 +5409,7 @@
       <c r="A85" s="3" t="n">
         <v>83</v>
       </c>
-      <c r="B85" s="17" t="s">
+      <c r="B85" s="18" t="s">
         <v>145</v>
       </c>
       <c r="C85" s="8" t="n">
@@ -5425,10 +5429,10 @@
       <c r="G85" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H85" s="20" t="s">
+      <c r="H85" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="I85" s="18" t="s">
+      <c r="I85" s="19" t="s">
         <v>147</v>
       </c>
       <c r="J85" s="13"/>
@@ -5437,7 +5441,7 @@
       <c r="A86" s="3" t="n">
         <v>84</v>
       </c>
-      <c r="B86" s="17" t="s">
+      <c r="B86" s="18" t="s">
         <v>148</v>
       </c>
       <c r="C86" s="8" t="n">
@@ -5457,10 +5461,10 @@
       <c r="G86" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H86" s="21" t="s">
+      <c r="H86" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="I86" s="18" t="s">
+      <c r="I86" s="19" t="s">
         <v>150</v>
       </c>
       <c r="J86" s="13"/>
@@ -5469,7 +5473,7 @@
       <c r="A87" s="3" t="n">
         <v>85</v>
       </c>
-      <c r="B87" s="22" t="s">
+      <c r="B87" s="23" t="s">
         <v>151</v>
       </c>
       <c r="C87" s="8" t="n">
@@ -5486,13 +5490,13 @@
         <f aca="false">273+D87</f>
         <v>273</v>
       </c>
-      <c r="G87" s="23" t="s">
+      <c r="G87" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H87" s="24" t="s">
+      <c r="H87" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="I87" s="18" t="s">
+      <c r="I87" s="19" t="s">
         <v>153</v>
       </c>
       <c r="J87" s="11" t="s">
@@ -5522,10 +5526,10 @@
       <c r="G88" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H88" s="25" t="s">
+      <c r="H88" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="I88" s="18" t="s">
+      <c r="I88" s="19" t="s">
         <v>157</v>
       </c>
       <c r="J88" s="11" t="s">
@@ -5536,7 +5540,7 @@
       <c r="A89" s="3" t="n">
         <v>87</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="15" t="s">
         <v>159</v>
       </c>
       <c r="C89" s="8" t="n">
@@ -5559,17 +5563,17 @@
       <c r="H89" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="I89" s="18"/>
+      <c r="I89" s="19"/>
       <c r="J89" s="11"/>
     </row>
     <row r="90" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="n">
         <v>88</v>
       </c>
-      <c r="B90" s="22" t="s">
+      <c r="B90" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="C90" s="16" t="n">
+      <c r="C90" s="17" t="n">
         <v>80</v>
       </c>
       <c r="D90" s="8" t="n">
@@ -5586,10 +5590,10 @@
       <c r="G90" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H90" s="26" t="s">
+      <c r="H90" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="I90" s="18"/>
+      <c r="I90" s="19"/>
       <c r="J90" s="11" t="s">
         <v>163</v>
       </c>
@@ -5598,7 +5602,7 @@
       <c r="A91" s="3" t="n">
         <v>89</v>
       </c>
-      <c r="B91" s="22" t="s">
+      <c r="B91" s="23" t="s">
         <v>164</v>
       </c>
       <c r="C91" s="8" t="n">
@@ -5618,10 +5622,10 @@
       <c r="G91" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H91" s="20" t="s">
+      <c r="H91" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="I91" s="18"/>
+      <c r="I91" s="19"/>
       <c r="J91" s="11"/>
     </row>
     <row r="92" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5648,17 +5652,17 @@
       <c r="G92" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H92" s="20" t="s">
+      <c r="H92" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="I92" s="18"/>
+      <c r="I92" s="19"/>
       <c r="J92" s="11"/>
     </row>
     <row r="93" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="n">
         <v>91</v>
       </c>
-      <c r="B93" s="22" t="s">
+      <c r="B93" s="23" t="s">
         <v>168</v>
       </c>
       <c r="C93" s="8" t="n">
@@ -5675,20 +5679,20 @@
         <f aca="false">273+D93</f>
         <v>253</v>
       </c>
-      <c r="G93" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H93" s="28" t="s">
+      <c r="G93" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H93" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I93" s="18"/>
+      <c r="I93" s="19"/>
       <c r="J93" s="11"/>
     </row>
     <row r="94" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="n">
         <v>92</v>
       </c>
-      <c r="B94" s="22" t="s">
+      <c r="B94" s="23" t="s">
         <v>169</v>
       </c>
       <c r="C94" s="8" t="n">
@@ -5705,18 +5709,18 @@
         <f aca="false">273+D94</f>
         <v>253</v>
       </c>
-      <c r="G94" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H94" s="20"/>
-      <c r="I94" s="18"/>
+      <c r="G94" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H94" s="21"/>
+      <c r="I94" s="19"/>
       <c r="J94" s="11"/>
     </row>
     <row r="95" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="n">
         <v>93</v>
       </c>
-      <c r="B95" s="22" t="s">
+      <c r="B95" s="23" t="s">
         <v>170</v>
       </c>
       <c r="C95" s="8" t="n">
@@ -5733,18 +5737,18 @@
         <f aca="false">273+D95</f>
         <v>253</v>
       </c>
-      <c r="G95" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H95" s="20"/>
-      <c r="I95" s="18"/>
+      <c r="G95" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H95" s="21"/>
+      <c r="I95" s="19"/>
       <c r="J95" s="11"/>
     </row>
     <row r="96" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="n">
         <v>94</v>
       </c>
-      <c r="B96" s="22" t="s">
+      <c r="B96" s="23" t="s">
         <v>171</v>
       </c>
       <c r="C96" s="8" t="n">
@@ -5761,21 +5765,21 @@
         <f aca="false">273+D96</f>
         <v>253</v>
       </c>
-      <c r="G96" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H96" s="28"/>
-      <c r="I96" s="18"/>
+      <c r="G96" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H96" s="29"/>
+      <c r="I96" s="19"/>
       <c r="J96" s="11"/>
     </row>
     <row r="97" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="n">
         <v>95</v>
       </c>
-      <c r="B97" s="22" t="s">
+      <c r="B97" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="C97" s="15" t="n">
+      <c r="C97" s="16" t="n">
         <v>-94</v>
       </c>
       <c r="D97" s="8" t="n">
@@ -5789,18 +5793,18 @@
         <f aca="false">273+D97</f>
         <v>253</v>
       </c>
-      <c r="G97" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H97" s="20"/>
-      <c r="I97" s="18"/>
+      <c r="G97" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H97" s="21"/>
+      <c r="I97" s="19"/>
       <c r="J97" s="11"/>
     </row>
     <row r="98" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="n">
         <v>96</v>
       </c>
-      <c r="B98" s="22" t="s">
+      <c r="B98" s="23" t="s">
         <v>173</v>
       </c>
       <c r="C98" s="8" t="n">
@@ -5817,21 +5821,21 @@
         <f aca="false">273+D98</f>
         <v>253</v>
       </c>
-      <c r="G98" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H98" s="20"/>
-      <c r="I98" s="18"/>
+      <c r="G98" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H98" s="21"/>
+      <c r="I98" s="19"/>
       <c r="J98" s="11"/>
     </row>
     <row r="99" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="n">
         <v>97</v>
       </c>
-      <c r="B99" s="22" t="s">
+      <c r="B99" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="C99" s="15" t="n">
+      <c r="C99" s="16" t="n">
         <v>-99</v>
       </c>
       <c r="D99" s="8" t="n">
@@ -5845,11 +5849,11 @@
         <f aca="false">273+D99</f>
         <v>253</v>
       </c>
-      <c r="G99" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H99" s="28"/>
-      <c r="I99" s="18"/>
+      <c r="G99" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H99" s="29"/>
+      <c r="I99" s="19"/>
       <c r="J99" s="11" t="s">
         <v>175</v>
       </c>
@@ -5858,7 +5862,7 @@
       <c r="A100" s="3" t="n">
         <v>98</v>
       </c>
-      <c r="B100" s="22" t="s">
+      <c r="B100" s="23" t="s">
         <v>176</v>
       </c>
       <c r="C100" s="8" t="n">
@@ -5875,20 +5879,20 @@
         <f aca="false">273+D100</f>
         <v>295</v>
       </c>
-      <c r="G100" s="29" t="s">
+      <c r="G100" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="H100" s="26" t="s">
+      <c r="H100" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="I100" s="18"/>
+      <c r="I100" s="19"/>
       <c r="J100" s="11"/>
     </row>
     <row r="101" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="n">
         <v>99</v>
       </c>
-      <c r="B101" s="22" t="s">
+      <c r="B101" s="23" t="s">
         <v>179</v>
       </c>
       <c r="C101" s="8" t="n">
@@ -5905,14 +5909,14 @@
         <f aca="false">273+D101</f>
         <v>263</v>
       </c>
-      <c r="G101" s="30" t="s">
+      <c r="G101" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="H101" s="30" t="s">
+      <c r="H101" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="I101" s="30"/>
-      <c r="J101" s="30" t="s">
+      <c r="I101" s="31"/>
+      <c r="J101" s="31" t="s">
         <v>181</v>
       </c>
     </row>
@@ -5920,7 +5924,7 @@
       <c r="A102" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="B102" s="22" t="s">
+      <c r="B102" s="23" t="s">
         <v>182</v>
       </c>
       <c r="C102" s="8" t="n">
@@ -5937,25 +5941,25 @@
         <f aca="false">273+D102</f>
         <v>273</v>
       </c>
-      <c r="G102" s="30" t="s">
+      <c r="G102" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="H102" s="30" t="s">
+      <c r="H102" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="I102" s="30"/>
-      <c r="J102" s="30" t="s">
+      <c r="I102" s="31"/>
+      <c r="J102" s="31" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B103" s="31"/>
-      <c r="H103" s="32" t="s">
+      <c r="B103" s="32"/>
+      <c r="H103" s="33" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B104" s="31"/>
+      <c r="B104" s="32"/>
     </row>
   </sheetData>
   <hyperlinks>
